--- a/TaskerAI/Resources/tasks.xlsx
+++ b/TaskerAI/Resources/tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\pvt\TaskerAI\TaskerAI\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\git\pvt\TasketAI\TaskerAI\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA62E66F-ED92-4884-9B97-AD67F64BFB23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4945BC-00B8-4847-B714-C976FC716BEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49F206D1-86CD-48B3-B56E-186C2C760432}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49F206D1-86CD-48B3-B56E-186C2C760432}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Street</t>
   </si>
@@ -73,15 +73,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>04-04-2021</t>
-  </si>
-  <si>
-    <t>04/04/2021</t>
   </si>
 </sst>
 </file>
@@ -467,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B45290-246C-4D7C-B49C-2C87CF202D2C}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,47 +517,11 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="bSPPQZ8w4/jYK/ZT0kV4XNI0BrbwdFNTs7/2emfJa0Uli6m8Poo6d5AwdF5PPp+JeMz1O8E3tbkhQR53uEwvMA==" saltValue="Sikc8GWZI93DeDuUzPHDDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
